--- a/resources/箱包/Special Purpose Bags & Cases.xlsx
+++ b/resources/箱包/Special Purpose Bags & Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Special Purpose Bags &amp; Cases" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>Material</t>
   </si>
@@ -882,8 +882,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A1:A9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A1:A20" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:A20"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Material" dataDxfId="45"/>
   </tableColumns>
@@ -962,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_3" displayName="表15_3" ref="A11:A18" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A11:A18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_3" displayName="表15_3" ref="A22:A29" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A22:A29"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Style" dataDxfId="42"/>
   </tableColumns>
@@ -972,8 +972,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表15_34" displayName="表15_34" ref="A20:A24" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="A20:A24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表15_34" displayName="表15_34" ref="A31:A35" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="A31:A35"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Type" dataDxfId="39"/>
   </tableColumns>
@@ -982,8 +982,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表15_345" displayName="表15_345" ref="A26:A32" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A26:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表15_345" displayName="表15_345" ref="A37:A43" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A37:A43"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Use" dataDxfId="36"/>
   </tableColumns>
@@ -992,8 +992,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表15_3456" displayName="表15_3456" ref="A34:A36" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A34:A36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表15_3456" displayName="表15_3456" ref="A45:A47" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A45:A47"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Color" dataDxfId="33"/>
   </tableColumns>
@@ -1328,15 +1328,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1384,118 +1384,173 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="A15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
+      <c r="A20" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1518,7 +1573,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,7 +1677,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A6" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1728,7 +1783,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A8" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1884,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A6" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,7 +1985,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD14"/>
+      <selection activeCell="A7" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1994,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
